--- a/data/trans_orig/iP16_n_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D112B18-806F-4E68-A293-27D3875E11B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA605D39-69DD-4DE6-BEC7-6750BD7DB69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4B6C37F2-105A-47FE-A8AB-7ED571BAC016}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E9182A2-A7A5-4799-B8F3-0CE4F055BE66}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="627">
   <si>
     <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -98,117 +98,117 @@
     <t>43,69%</t>
   </si>
   <si>
-    <t>17,77%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
   </si>
   <si>
     <t>75,89%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
@@ -224,1678 +224,1702 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>7,69%</t>
   </si>
   <si>
     <t>8,57%</t>
   </si>
   <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1930,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2002,39 +2026,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2086,7 +2110,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2197,13 +2221,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2212,6 +2229,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2276,19 +2300,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67F28EE-09B9-4A3E-A16F-3148E1E14215}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0014627A-6671-4E23-855B-E93FC72D6FAF}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4245,6 +4289,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A16:A21"/>
@@ -4263,8 +4312,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FF6E9D-F213-4439-8B1B-54DF114A0460}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815ACBFB-E779-457C-956F-02655D3713AD}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4280,7 +4329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4393,7 +4442,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4408,7 +4457,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4423,7 +4472,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,7 +4493,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4459,7 +4508,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4474,7 +4523,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,7 +4544,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4504,13 +4553,13 @@
         <v>896</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4519,13 +4568,13 @@
         <v>896</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4589,13 @@
         <v>737</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4555,13 +4604,13 @@
         <v>2922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4570,13 +4619,13 @@
         <v>3659</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4640,13 @@
         <v>1915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4606,13 +4655,13 @@
         <v>2416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4621,13 +4670,13 @@
         <v>4330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,7 +4750,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4731,7 +4780,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,7 +4801,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4782,7 +4831,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4852,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -4812,13 +4861,13 @@
         <v>1553</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4827,13 +4876,13 @@
         <v>1554</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4897,13 @@
         <v>5674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4863,13 +4912,13 @@
         <v>3034</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4878,13 +4927,13 @@
         <v>8708</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4948,13 @@
         <v>26098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -4914,13 +4963,13 @@
         <v>20625</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -4929,13 +4978,13 @@
         <v>46724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5039,7 +5088,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5090,7 +5139,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5169,13 @@
         <v>637</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -5135,13 +5184,13 @@
         <v>637</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5205,13 @@
         <v>4675</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -5171,13 +5220,13 @@
         <v>4770</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -5186,13 +5235,13 @@
         <v>9444</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5256,13 @@
         <v>35645</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -5222,13 +5271,13 @@
         <v>36097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -5237,13 +5286,13 @@
         <v>71743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,7 +5366,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5332,7 +5381,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5347,7 +5396,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,7 +5417,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5383,7 +5432,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5398,7 +5447,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5462,13 @@
         <v>607</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5428,13 +5477,13 @@
         <v>627</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5443,13 +5492,13 @@
         <v>1234</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5513,13 @@
         <v>2702</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5479,13 +5528,13 @@
         <v>5348</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5494,13 +5543,13 @@
         <v>8049</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>270</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,7 +5674,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5655,7 +5704,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,7 +5776,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5757,7 +5806,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,7 +5842,7 @@
         <v>288</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -5802,13 +5851,13 @@
         <v>13036</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5872,13 @@
         <v>39779</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H32" s="7">
         <v>47</v>
@@ -5838,13 +5887,13 @@
         <v>35103</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -5853,13 +5902,13 @@
         <v>74881</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,22 +5997,22 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,14 +6027,14 @@
         <v>1097</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
@@ -5999,7 +6048,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6008,13 +6057,13 @@
         <v>1097</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6078,13 @@
         <v>607</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -6044,10 +6093,10 @@
         <v>3714</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>311</v>
@@ -6161,7 +6210,7 @@
         <v>257959</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>330</v>
@@ -6219,6 +6268,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6239,8 +6293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC4276A-9D45-4A1C-BDDB-F1C69C8B709A}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED778151-82A0-43B0-96D4-2445B95F34AC}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6384,7 +6438,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6435,7 +6489,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6486,7 +6540,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6537,7 +6591,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6573,7 +6627,7 @@
         <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6582,7 +6636,7 @@
         <v>6479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>341</v>
@@ -6603,7 +6657,7 @@
         <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,10 +6896,10 @@
         <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6854,13 +6908,13 @@
         <v>3999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6929,13 @@
         <v>18460</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -6890,13 +6944,13 @@
         <v>16089</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -6905,13 +6959,13 @@
         <v>34548</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,7 +7039,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7000,7 +7054,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7015,7 +7069,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,7 +7090,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7051,7 +7105,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7066,7 +7120,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7135,13 @@
         <v>669</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -7096,13 +7150,13 @@
         <v>536</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -7111,13 +7165,13 @@
         <v>1205</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7186,13 @@
         <v>4585</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -7147,13 +7201,13 @@
         <v>6254</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -7162,13 +7216,13 @@
         <v>10839</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7237,13 @@
         <v>35893</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -7198,13 +7252,13 @@
         <v>35909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -7213,13 +7267,13 @@
         <v>71802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7293,7 +7347,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7308,7 +7362,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7344,7 +7398,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7359,7 +7413,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7395,7 +7449,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7410,7 +7464,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7440,13 +7494,13 @@
         <v>6545</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -7455,13 +7509,13 @@
         <v>3026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7470,13 +7524,13 @@
         <v>9572</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7545,13 @@
         <v>21261</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -7506,13 +7560,13 @@
         <v>24589</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -7521,13 +7575,13 @@
         <v>45849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7616,7 +7670,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7631,7 +7685,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>66</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,7 +7721,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7682,7 +7736,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7751,13 @@
         <v>713</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>411</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -7718,7 +7772,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -7727,13 +7781,13 @@
         <v>713</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7802,13 @@
         <v>1302</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -7763,13 +7817,13 @@
         <v>4382</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -7778,13 +7832,13 @@
         <v>5684</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7853,13 @@
         <v>28131</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -7814,13 +7868,13 @@
         <v>28406</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M32" s="7">
         <v>77</v>
@@ -7829,13 +7883,13 @@
         <v>56537</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,7 +7963,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>425</v>
+        <v>154</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7924,7 +7978,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7939,7 +7993,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>313</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,7 +8014,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>425</v>
+        <v>154</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -7975,7 +8029,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -7990,7 +8044,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>313</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8059,13 @@
         <v>1382</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>428</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -8020,13 +8074,13 @@
         <v>536</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -8035,13 +8089,13 @@
         <v>1918</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8110,13 @@
         <v>15616</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>218</v>
+        <v>440</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -8071,13 +8125,13 @@
         <v>15454</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>437</v>
+        <v>219</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>438</v>
+        <v>69</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -8086,13 +8140,13 @@
         <v>31069</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8161,13 @@
         <v>106278</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H38" s="7">
         <v>167</v>
@@ -8122,13 +8176,13 @@
         <v>111472</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>225</v>
+        <v>451</v>
       </c>
       <c r="M38" s="7">
         <v>320</v>
@@ -8137,13 +8191,13 @@
         <v>217750</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,6 +8249,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -8215,8 +8274,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010EB2AE-275C-448F-BC21-4331143945F3}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E520FF0F-BEA9-47B3-8806-04902C574495}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -8232,7 +8291,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8345,7 +8404,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8396,7 +8455,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8447,7 +8506,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8492,13 +8551,13 @@
         <v>1019</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -8507,13 +8566,13 @@
         <v>1021</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>458</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -8522,13 +8581,13 @@
         <v>2040</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,13 +8602,13 @@
         <v>3148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -8558,13 +8617,13 @@
         <v>5191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -8573,13 +8632,13 @@
         <v>8338</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8653,7 +8712,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8668,7 +8727,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8683,7 +8742,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8704,7 +8763,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -8713,13 +8772,13 @@
         <v>816</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8728,13 +8787,13 @@
         <v>817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,13 +8808,13 @@
         <v>1113</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -8764,13 +8823,13 @@
         <v>704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -8785,7 +8844,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,13 +8859,13 @@
         <v>5020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -8815,13 +8874,13 @@
         <v>8233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -8830,13 +8889,13 @@
         <v>13253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>483</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8851,13 +8910,13 @@
         <v>15472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -8866,13 +8925,13 @@
         <v>9569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -8881,13 +8940,13 @@
         <v>25041</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8961,7 +9020,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8991,7 +9050,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9006,13 +9065,13 @@
         <v>1483</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9036,13 +9095,13 @@
         <v>1483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9057,13 +9116,13 @@
         <v>3215</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>367</v>
+        <v>503</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -9072,13 +9131,13 @@
         <v>2055</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>363</v>
+        <v>507</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -9087,13 +9146,13 @@
         <v>5270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9108,13 +9167,13 @@
         <v>16374</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -9123,13 +9182,13 @@
         <v>11612</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -9138,13 +9197,13 @@
         <v>27987</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9159,13 +9218,13 @@
         <v>39773</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -9174,13 +9233,13 @@
         <v>26506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -9189,13 +9248,13 @@
         <v>66278</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9269,7 +9328,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -9278,13 +9337,13 @@
         <v>575</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>525</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -9293,13 +9352,13 @@
         <v>575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>526</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9320,7 +9379,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -9329,13 +9388,13 @@
         <v>833</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>530</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -9344,13 +9403,13 @@
         <v>833</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9365,13 +9424,13 @@
         <v>1847</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -9380,13 +9439,13 @@
         <v>3778</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>532</v>
+        <v>207</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -9395,13 +9454,13 @@
         <v>5625</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9416,13 +9475,13 @@
         <v>16465</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -9431,13 +9490,13 @@
         <v>10837</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>541</v>
+        <v>197</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -9446,13 +9505,13 @@
         <v>27302</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9467,13 +9526,13 @@
         <v>35182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -9482,13 +9541,13 @@
         <v>41873</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -9497,13 +9556,13 @@
         <v>77054</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9577,7 +9636,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9592,7 +9651,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9607,7 +9666,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>100</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9628,7 +9687,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -9637,13 +9696,13 @@
         <v>783</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -9652,13 +9711,13 @@
         <v>783</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9673,13 +9732,13 @@
         <v>2545</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>565</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -9688,13 +9747,13 @@
         <v>1952</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -9703,13 +9762,13 @@
         <v>4498</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9724,13 +9783,13 @@
         <v>9815</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>484</v>
+        <v>575</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -9739,13 +9798,13 @@
         <v>7986</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -9754,13 +9813,13 @@
         <v>17801</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9775,13 +9834,13 @@
         <v>20068</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -9790,13 +9849,13 @@
         <v>20087</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M32" s="7">
         <v>59</v>
@@ -9805,13 +9864,13 @@
         <v>40155</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9885,7 +9944,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9894,13 +9953,13 @@
         <v>575</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -9909,13 +9968,13 @@
         <v>575</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>425</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9936,7 +9995,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -9945,13 +10004,13 @@
         <v>2433</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -9960,13 +10019,13 @@
         <v>3915</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>303</v>
+        <v>600</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9981,13 +10040,13 @@
         <v>8720</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -9996,13 +10055,13 @@
         <v>8489</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -10011,13 +10070,13 @@
         <v>17209</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10032,13 +10091,13 @@
         <v>48693</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="H37" s="7">
         <v>65</v>
@@ -10047,13 +10106,13 @@
         <v>39690</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>606</v>
+        <v>460</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="M37" s="7">
         <v>140</v>
@@ -10062,13 +10121,13 @@
         <v>88382</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10083,13 +10142,13 @@
         <v>113642</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="H38" s="7">
         <v>144</v>
@@ -10098,13 +10157,13 @@
         <v>103225</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="M38" s="7">
         <v>304</v>
@@ -10113,13 +10172,13 @@
         <v>216866</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>221</v>
+        <v>624</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10171,6 +10230,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP16_n_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA605D39-69DD-4DE6-BEC7-6750BD7DB69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBBA4D4-02CC-4AD4-B342-905752E44A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E9182A2-A7A5-4799-B8F3-0CE4F055BE66}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E1055688-9077-4C8D-84BC-2B99575670AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="615">
   <si>
     <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,1633 +89,1612 @@
     <t>54,72%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>43,69%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>47,34%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>45,28%</t>
   </si>
   <si>
-    <t>10,54%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>82,4%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>51,97%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>75,89%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>76,8%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>8,08%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,46%</t>
+    <t>3,83%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>14,53%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>9,75%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>28,29%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
   </si>
   <si>
     <t>65,77%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -1724,118 +1703,103 @@
     <t>2,54%</t>
   </si>
   <si>
-    <t>16,51%</t>
+    <t>12,79%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>5,86%</t>
+    <t>6,89%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>13,95%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
+    <t>44,16%</t>
   </si>
   <si>
     <t>25,92%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
   </si>
   <si>
     <t>61,89%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>65,2%</t>
   </si>
   <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>0,97%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>1,2%</t>
@@ -1844,64 +1808,64 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>2,96%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>28,22%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>32,41%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>66,85%</t>
@@ -1910,16 +1874,16 @@
     <t>60,11%</t>
   </si>
   <si>
-    <t>73,9%</t>
+    <t>73,8%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0014627A-6671-4E23-855B-E93FC72D6FAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10763C5-12DB-4B7D-B8E6-444EE2CE7C8D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3487,7 +3451,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3496,13 +3460,13 @@
         <v>2243</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -3511,13 +3475,13 @@
         <v>3527</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3496,13 @@
         <v>15322</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3547,13 +3511,13 @@
         <v>5289</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -3562,13 +3526,13 @@
         <v>20611</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3547,13 @@
         <v>18517</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -3598,13 +3562,13 @@
         <v>17115</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -3613,13 +3577,13 @@
         <v>35631</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3639,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -3693,37 +3657,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,37 +3708,37 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,14 +3753,14 @@
         <v>2782</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
@@ -3810,7 +3774,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -3819,13 +3783,13 @@
         <v>2782</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3804,13 @@
         <v>14926</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -3855,13 +3819,13 @@
         <v>11343</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M31" s="7">
         <v>36</v>
@@ -3870,13 +3834,13 @@
         <v>26268</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3855,13 @@
         <v>21109</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -3906,13 +3870,13 @@
         <v>14334</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M32" s="7">
         <v>50</v>
@@ -3921,13 +3885,13 @@
         <v>35444</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,37 +3965,37 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,7 +4016,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4061,13 +4025,13 @@
         <v>517</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -4076,13 +4040,13 @@
         <v>517</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4061,13 @@
         <v>4697</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4112,13 +4076,13 @@
         <v>5813</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M36" s="7">
         <v>17</v>
@@ -4127,13 +4091,13 @@
         <v>10509</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4112,13 @@
         <v>52566</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H37" s="7">
         <v>61</v>
@@ -4163,13 +4127,13 @@
         <v>41607</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M37" s="7">
         <v>138</v>
@@ -4178,13 +4142,13 @@
         <v>94173</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4163,13 @@
         <v>86656</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H38" s="7">
         <v>118</v>
@@ -4214,13 +4178,13 @@
         <v>77368</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M38" s="7">
         <v>249</v>
@@ -4229,13 +4193,13 @@
         <v>164024</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4255,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4312,7 +4276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815ACBFB-E779-457C-956F-02655D3713AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBF19E4-6F00-4269-B747-DA418F5CBE59}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4329,7 +4293,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4442,37 +4406,37 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,37 +4457,37 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,7 +4508,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4553,13 +4517,13 @@
         <v>896</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4568,13 +4532,13 @@
         <v>896</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4553,13 @@
         <v>737</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4604,13 +4568,13 @@
         <v>2922</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4619,13 +4583,13 @@
         <v>3659</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4604,13 @@
         <v>1915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4655,13 +4619,13 @@
         <v>2416</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4670,13 +4634,13 @@
         <v>4330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,7 +4714,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4765,7 +4729,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4780,7 +4744,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,7 +4765,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4816,7 +4780,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4831,7 +4795,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -4861,13 +4825,13 @@
         <v>1553</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4876,13 +4840,13 @@
         <v>1554</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4861,13 @@
         <v>5674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4912,13 +4876,13 @@
         <v>3034</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4927,13 +4891,13 @@
         <v>8708</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4912,13 @@
         <v>26098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -4963,13 +4927,13 @@
         <v>20625</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -4978,13 +4942,13 @@
         <v>46724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,7 +5022,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5073,7 +5037,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5088,7 +5052,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5124,7 +5088,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5139,7 +5103,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5169,13 +5133,13 @@
         <v>637</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -5184,13 +5148,13 @@
         <v>637</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5169,13 @@
         <v>4675</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -5220,13 +5184,13 @@
         <v>4770</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -5235,13 +5199,13 @@
         <v>9444</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5220,13 @@
         <v>35645</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -5271,13 +5235,13 @@
         <v>36097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -5286,13 +5250,13 @@
         <v>71743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,7 +5330,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5381,7 +5345,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5396,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,7 +5381,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5432,7 +5396,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5447,7 +5411,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5426,13 @@
         <v>607</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5477,13 +5441,13 @@
         <v>627</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5492,13 +5456,13 @@
         <v>1234</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5477,13 @@
         <v>2702</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5528,13 +5492,13 @@
         <v>5348</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5543,13 +5507,13 @@
         <v>8049</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5528,13 @@
         <v>33292</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -5579,13 +5543,13 @@
         <v>26989</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -5594,13 +5558,13 @@
         <v>60281</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5620,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -5674,7 +5638,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5689,7 +5653,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5704,7 +5668,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5683,13 @@
         <v>1097</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5740,7 +5704,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -5749,13 +5713,13 @@
         <v>1097</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,7 +5740,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5791,7 +5755,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5806,7 +5770,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5785,13 @@
         <v>6353</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -5836,13 +5800,13 @@
         <v>6683</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -5851,13 +5815,13 @@
         <v>13036</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5836,13 @@
         <v>39779</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H32" s="7">
         <v>47</v>
@@ -5887,13 +5851,13 @@
         <v>35103</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -5902,13 +5866,13 @@
         <v>74881</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,7 +5961,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6012,7 +5976,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +5991,13 @@
         <v>1097</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6048,7 +6012,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6057,13 +6021,13 @@
         <v>1097</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6042,13 @@
         <v>607</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -6093,13 +6057,13 @@
         <v>3714</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -6108,13 +6072,13 @@
         <v>4321</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6093,13 @@
         <v>20140</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
@@ -6144,13 +6108,13 @@
         <v>22757</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M37" s="7">
         <v>60</v>
@@ -6159,13 +6123,13 @@
         <v>42896</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6144,13 @@
         <v>136730</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H38" s="7">
         <v>176</v>
@@ -6195,13 +6159,13 @@
         <v>121231</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M38" s="7">
         <v>369</v>
@@ -6210,13 +6174,13 @@
         <v>257959</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,7 +6236,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6293,7 +6257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED778151-82A0-43B0-96D4-2445B95F34AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75DAEE7-0357-4A99-AD24-E2B92E890FAB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6310,7 +6274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6423,7 +6387,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6438,7 +6402,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6453,7 +6417,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,7 +6438,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6489,7 +6453,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6504,7 +6468,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,7 +6489,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6540,7 +6504,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6555,7 +6519,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6534,13 @@
         <v>976</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6591,7 +6555,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6600,13 +6564,13 @@
         <v>976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6585,13 @@
         <v>2534</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6636,10 +6600,10 @@
         <v>6479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>33</v>
@@ -6651,13 +6615,13 @@
         <v>9013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,7 +6695,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6746,7 +6710,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6782,7 +6746,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6797,7 +6761,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6833,7 +6797,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6848,7 +6812,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6878,13 +6842,13 @@
         <v>2207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6893,13 +6857,13 @@
         <v>1791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6908,13 +6872,13 @@
         <v>3999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6893,13 @@
         <v>18460</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -6944,13 +6908,13 @@
         <v>16089</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -6959,13 +6923,13 @@
         <v>34548</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,7 +7003,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7054,7 +7018,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7069,7 +7033,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,7 +7054,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7105,7 +7069,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7120,7 +7084,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7099,13 @@
         <v>669</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -7150,13 +7114,13 @@
         <v>536</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -7165,13 +7129,13 @@
         <v>1205</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7150,13 @@
         <v>4585</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -7201,13 +7165,13 @@
         <v>6254</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -7216,13 +7180,13 @@
         <v>10839</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7201,13 @@
         <v>35893</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -7252,13 +7216,13 @@
         <v>35909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -7267,13 +7231,13 @@
         <v>71802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,7 +7311,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7362,7 +7326,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7377,7 +7341,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,7 +7362,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7413,7 +7377,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7428,7 +7392,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,7 +7413,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7464,7 +7428,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7479,7 +7443,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7458,13 @@
         <v>6545</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>392</v>
+        <v>238</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -7509,13 +7473,13 @@
         <v>3026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7524,13 +7488,13 @@
         <v>9572</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7509,13 @@
         <v>21261</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -7560,13 +7524,13 @@
         <v>24589</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -7575,13 +7539,13 @@
         <v>45849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,7 +7601,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -7670,7 +7634,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7685,7 +7649,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,7 +7685,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7736,7 +7700,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7715,13 @@
         <v>713</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -7772,7 +7736,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -7781,13 +7745,13 @@
         <v>713</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,13 +7766,13 @@
         <v>1302</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -7817,13 +7781,13 @@
         <v>4382</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -7832,13 +7796,13 @@
         <v>5684</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,13 +7817,13 @@
         <v>28131</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -7868,13 +7832,13 @@
         <v>28406</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="M32" s="7">
         <v>77</v>
@@ -7883,13 +7847,13 @@
         <v>56537</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,7 +7927,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>154</v>
+        <v>423</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7978,7 +7942,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7993,7 +7957,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,7 +7978,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>154</v>
+        <v>423</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8029,7 +7993,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -8044,7 +8008,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8023,13 @@
         <v>1382</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -8074,13 +8038,13 @@
         <v>536</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>411</v>
+        <v>150</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -8089,13 +8053,13 @@
         <v>1918</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8074,13 @@
         <v>15616</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -8125,13 +8089,13 @@
         <v>15454</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>219</v>
+        <v>435</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>69</v>
+        <v>436</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -8140,13 +8104,13 @@
         <v>31069</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8125,13 @@
         <v>106278</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="H38" s="7">
         <v>167</v>
@@ -8176,13 +8140,13 @@
         <v>111472</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M38" s="7">
         <v>320</v>
@@ -8191,13 +8155,13 @@
         <v>217750</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8253,7 +8217,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -8274,7 +8238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E520FF0F-BEA9-47B3-8806-04902C574495}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3F91E6-FBA9-4E49-8EDC-28481B20074F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8291,7 +8255,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8404,7 +8368,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8419,7 +8383,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8455,7 +8419,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8470,7 +8434,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8506,7 +8470,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8521,7 +8485,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8551,13 +8515,13 @@
         <v>1019</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -8566,13 +8530,13 @@
         <v>1021</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -8581,13 +8545,13 @@
         <v>2040</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8602,13 +8566,13 @@
         <v>3148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -8617,13 +8581,13 @@
         <v>5191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -8632,13 +8596,13 @@
         <v>8338</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8712,7 +8676,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8727,7 +8691,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8742,7 +8706,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8763,7 +8727,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -8772,13 +8736,13 @@
         <v>816</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8787,13 +8751,13 @@
         <v>817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8808,13 +8772,13 @@
         <v>1113</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -8823,13 +8787,13 @@
         <v>704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -8844,7 +8808,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8859,13 +8823,13 @@
         <v>5020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -8874,13 +8838,13 @@
         <v>8233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -8889,13 +8853,13 @@
         <v>13253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>482</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8910,13 +8874,13 @@
         <v>15472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -8925,13 +8889,13 @@
         <v>9569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -8940,13 +8904,13 @@
         <v>25041</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9020,7 +8984,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>498</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9050,7 +9014,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9065,13 +9029,13 @@
         <v>1483</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>499</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9095,13 +9059,13 @@
         <v>1483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9116,13 +9080,13 @@
         <v>3215</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>503</v>
+        <v>406</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -9131,13 +9095,13 @@
         <v>2055</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -9146,13 +9110,13 @@
         <v>5270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>502</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9167,13 +9131,13 @@
         <v>16374</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>512</v>
+        <v>314</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -9182,13 +9146,13 @@
         <v>11612</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -9197,13 +9161,13 @@
         <v>27987</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9218,13 +9182,13 @@
         <v>39773</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -9233,13 +9197,13 @@
         <v>26506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>524</v>
+        <v>461</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -9248,13 +9212,13 @@
         <v>66278</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9328,7 +9292,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -9337,13 +9301,13 @@
         <v>575</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>521</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -9352,13 +9316,13 @@
         <v>575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9379,7 +9343,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -9388,13 +9352,13 @@
         <v>833</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -9403,13 +9367,13 @@
         <v>833</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9424,13 +9388,13 @@
         <v>1847</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -9439,13 +9403,13 @@
         <v>3778</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>207</v>
+        <v>530</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -9454,13 +9418,13 @@
         <v>5625</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>539</v>
+        <v>402</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9475,13 +9439,13 @@
         <v>16465</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -9490,13 +9454,13 @@
         <v>10837</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>197</v>
+        <v>538</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -9505,13 +9469,13 @@
         <v>27302</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9526,13 +9490,13 @@
         <v>35182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -9541,13 +9505,13 @@
         <v>41873</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -9556,13 +9520,13 @@
         <v>77054</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9618,7 +9582,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -9636,7 +9600,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9651,7 +9615,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>558</v>
+        <v>234</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9666,7 +9630,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9687,7 +9651,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -9696,13 +9660,13 @@
         <v>783</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -9711,13 +9675,13 @@
         <v>783</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9732,13 +9696,13 @@
         <v>2545</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -9747,13 +9711,13 @@
         <v>1952</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -9762,13 +9726,13 @@
         <v>4498</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>571</v>
+        <v>311</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9783,13 +9747,13 @@
         <v>9815</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>574</v>
+        <v>16</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -9798,13 +9762,13 @@
         <v>7986</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -9813,13 +9777,13 @@
         <v>17801</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>579</v>
+        <v>343</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9834,13 +9798,13 @@
         <v>20068</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -9849,13 +9813,13 @@
         <v>20087</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="M32" s="7">
         <v>59</v>
@@ -9864,13 +9828,13 @@
         <v>40155</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9944,7 +9908,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9953,13 +9917,13 @@
         <v>575</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -9968,13 +9932,13 @@
         <v>575</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9995,7 +9959,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>595</v>
+        <v>342</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -10004,13 +9968,13 @@
         <v>2433</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>597</v>
+        <v>148</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -10019,13 +9983,13 @@
         <v>3915</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10040,13 +10004,13 @@
         <v>8720</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -10055,13 +10019,13 @@
         <v>8489</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>606</v>
+        <v>438</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -10070,13 +10034,13 @@
         <v>17209</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10091,13 +10055,13 @@
         <v>48693</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="H37" s="7">
         <v>65</v>
@@ -10106,13 +10070,13 @@
         <v>39690</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>460</v>
+        <v>601</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="M37" s="7">
         <v>140</v>
@@ -10121,13 +10085,13 @@
         <v>88382</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10142,13 +10106,13 @@
         <v>113642</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="H38" s="7">
         <v>144</v>
@@ -10157,13 +10121,13 @@
         <v>103225</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="M38" s="7">
         <v>304</v>
@@ -10172,13 +10136,13 @@
         <v>216866</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10234,7 +10198,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
